--- a/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Itgav-Thy1.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Itgav-Thy1.xlsx
@@ -543,16 +543,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>10.00115033333333</v>
+        <v>18.153033</v>
       </c>
       <c r="H2">
-        <v>30.003451</v>
+        <v>54.459099</v>
       </c>
       <c r="I2">
-        <v>0.03551374247070085</v>
+        <v>0.06144694972193577</v>
       </c>
       <c r="J2">
-        <v>0.03551374247070085</v>
+        <v>0.06144694972193578</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -561,28 +561,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>2.015745</v>
+        <v>16.37527</v>
       </c>
       <c r="N2">
-        <v>6.047235</v>
+        <v>49.12580999999999</v>
       </c>
       <c r="O2">
-        <v>0.01857080082826054</v>
+        <v>0.1209633773771395</v>
       </c>
       <c r="P2">
-        <v>0.01857080082826054</v>
+        <v>0.1209633773771395</v>
       </c>
       <c r="Q2">
-        <v>20.159768778665</v>
+        <v>297.2608166939099</v>
       </c>
       <c r="R2">
-        <v>181.437919007985</v>
+        <v>2675.34735024519</v>
       </c>
       <c r="S2">
-        <v>0.0006595186380895231</v>
+        <v>0.007432830567888634</v>
       </c>
       <c r="T2">
-        <v>0.0006595186380895228</v>
+        <v>0.007432830567888637</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -605,16 +605,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>10.00115033333333</v>
+        <v>18.153033</v>
       </c>
       <c r="H3">
-        <v>30.003451</v>
+        <v>54.459099</v>
       </c>
       <c r="I3">
-        <v>0.03551374247070085</v>
+        <v>0.06144694972193577</v>
       </c>
       <c r="J3">
-        <v>0.03551374247070085</v>
+        <v>0.06144694972193578</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -623,28 +623,28 @@
         <v>1</v>
       </c>
       <c r="M3">
-        <v>80.79459133333332</v>
+        <v>80.79459133333334</v>
       </c>
       <c r="N3">
         <v>242.383774</v>
       </c>
       <c r="O3">
-        <v>0.7443502346040983</v>
+        <v>0.5968259846393842</v>
       </c>
       <c r="P3">
-        <v>0.7443502346040983</v>
+        <v>0.5968259846393843</v>
       </c>
       <c r="Q3">
-        <v>808.0388540448969</v>
+        <v>1466.666882695514</v>
       </c>
       <c r="R3">
-        <v>7272.349686404073</v>
+        <v>13200.00194425963</v>
       </c>
       <c r="S3">
-        <v>0.02643466253973571</v>
+        <v>0.03667313627088105</v>
       </c>
       <c r="T3">
-        <v>0.02643466253973571</v>
+        <v>0.03667313627088106</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -667,16 +667,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>10.00115033333333</v>
+        <v>18.153033</v>
       </c>
       <c r="H4">
-        <v>30.003451</v>
+        <v>54.459099</v>
       </c>
       <c r="I4">
-        <v>0.03551374247070085</v>
+        <v>0.06144694972193577</v>
       </c>
       <c r="J4">
-        <v>0.03551374247070085</v>
+        <v>0.06144694972193578</v>
       </c>
       <c r="K4">
         <v>2</v>
@@ -685,28 +685,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M4">
-        <v>0.1439546666666667</v>
+        <v>0.05274599999999999</v>
       </c>
       <c r="N4">
-        <v>0.431864</v>
+        <v>0.158238</v>
       </c>
       <c r="O4">
-        <v>0.001326235929130571</v>
+        <v>0.0003896323115975859</v>
       </c>
       <c r="P4">
-        <v>0.001326235929130571</v>
+        <v>0.0003896323115975861</v>
       </c>
       <c r="Q4">
-        <v>1.439712262518222</v>
+        <v>0.9574998786179999</v>
       </c>
       <c r="R4">
-        <v>12.957410362664</v>
+        <v>8.617498907562</v>
       </c>
       <c r="S4">
-        <v>4.709960124253378E-05</v>
+        <v>2.394171706077847E-05</v>
       </c>
       <c r="T4">
-        <v>4.709960124253378E-05</v>
+        <v>2.394171706077848E-05</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -729,16 +729,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>10.00115033333333</v>
+        <v>18.153033</v>
       </c>
       <c r="H5">
-        <v>30.003451</v>
+        <v>54.459099</v>
       </c>
       <c r="I5">
-        <v>0.03551374247070085</v>
+        <v>0.06144694972193577</v>
       </c>
       <c r="J5">
-        <v>0.03551374247070085</v>
+        <v>0.06144694972193578</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -747,28 +747,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>23.53999566666667</v>
+        <v>37.53882766666667</v>
       </c>
       <c r="N5">
-        <v>70.61998699999999</v>
+        <v>112.616483</v>
       </c>
       <c r="O5">
-        <v>0.2168709688099352</v>
+        <v>0.2772976187469524</v>
       </c>
       <c r="P5">
-        <v>0.2168709688099352</v>
+        <v>0.2772976187469524</v>
       </c>
       <c r="Q5">
-        <v>235.4270355083486</v>
+        <v>681.443577414313</v>
       </c>
       <c r="R5">
-        <v>2118.843319575137</v>
+        <v>6132.992196728817</v>
       </c>
       <c r="S5">
-        <v>0.007701899735687437</v>
+        <v>0.0170390928371565</v>
       </c>
       <c r="T5">
-        <v>0.007701899735687436</v>
+        <v>0.0170390928371565</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -791,16 +791,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>10.00115033333333</v>
+        <v>18.153033</v>
       </c>
       <c r="H6">
-        <v>30.003451</v>
+        <v>54.459099</v>
       </c>
       <c r="I6">
-        <v>0.03551374247070085</v>
+        <v>0.06144694972193577</v>
       </c>
       <c r="J6">
-        <v>0.03551374247070085</v>
+        <v>0.06144694972193578</v>
       </c>
       <c r="K6">
         <v>2</v>
@@ -809,28 +809,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M6">
-        <v>0.5362146666666666</v>
+        <v>0.5302206666666667</v>
       </c>
       <c r="N6">
-        <v>1.608644</v>
+        <v>1.590662</v>
       </c>
       <c r="O6">
-        <v>0.004940077130717815</v>
+        <v>0.003916716035531537</v>
       </c>
       <c r="P6">
-        <v>0.004940077130717815</v>
+        <v>0.003916716035531538</v>
       </c>
       <c r="Q6">
-        <v>5.362763492271555</v>
+        <v>9.625113259282001</v>
       </c>
       <c r="R6">
-        <v>48.264871430444</v>
+        <v>86.62601933353801</v>
       </c>
       <c r="S6">
-        <v>0.0001754406270057113</v>
+        <v>0.0002406702533104059</v>
       </c>
       <c r="T6">
-        <v>0.0001754406270057113</v>
+        <v>0.000240670253310406</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -853,46 +853,46 @@
         <v>1</v>
       </c>
       <c r="G7">
-        <v>10.00115033333333</v>
+        <v>18.153033</v>
       </c>
       <c r="H7">
-        <v>30.003451</v>
+        <v>54.459099</v>
       </c>
       <c r="I7">
-        <v>0.03551374247070085</v>
+        <v>0.06144694972193577</v>
       </c>
       <c r="J7">
-        <v>0.03551374247070085</v>
+        <v>0.06144694972193578</v>
       </c>
       <c r="K7">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L7">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M7">
-        <v>1.513283</v>
+        <v>0.08212733333333333</v>
       </c>
       <c r="N7">
-        <v>4.539849</v>
+        <v>0.246382</v>
       </c>
       <c r="O7">
-        <v>0.01394168269785742</v>
+        <v>0.0006066708893946866</v>
       </c>
       <c r="P7">
-        <v>0.01394168269785741</v>
+        <v>0.0006066708893946868</v>
       </c>
       <c r="Q7">
-        <v>15.13457077987767</v>
+        <v>1.490860192202</v>
       </c>
       <c r="R7">
-        <v>136.211137018899</v>
+        <v>13.417741729818</v>
       </c>
       <c r="S7">
-        <v>0.0004951213289399343</v>
+        <v>3.727807563839736E-05</v>
       </c>
       <c r="T7">
-        <v>0.0004951213289399342</v>
+        <v>3.727807563839738E-05</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -921,10 +921,10 @@
         <v>214.143257</v>
       </c>
       <c r="I8">
-        <v>0.253471791659403</v>
+        <v>0.2416207794067722</v>
       </c>
       <c r="J8">
-        <v>0.2534717916594031</v>
+        <v>0.2416207794067722</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -933,28 +933,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>2.015745</v>
+        <v>16.37527</v>
       </c>
       <c r="N8">
-        <v>6.047235</v>
+        <v>49.12580999999999</v>
       </c>
       <c r="O8">
-        <v>0.01857080082826054</v>
+        <v>0.1209633773771395</v>
       </c>
       <c r="P8">
-        <v>0.01857080082826054</v>
+        <v>0.1209633773771395</v>
       </c>
       <c r="Q8">
-        <v>143.886066527155</v>
+        <v>1168.884550684796</v>
       </c>
       <c r="R8">
-        <v>1294.974598744395</v>
+        <v>10519.96095616317</v>
       </c>
       <c r="S8">
-        <v>0.004707174158489125</v>
+        <v>0.02922726552153997</v>
       </c>
       <c r="T8">
-        <v>0.004707174158489125</v>
+        <v>0.02922726552153998</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -983,10 +983,10 @@
         <v>214.143257</v>
       </c>
       <c r="I9">
-        <v>0.253471791659403</v>
+        <v>0.2416207794067722</v>
       </c>
       <c r="J9">
-        <v>0.2534717916594031</v>
+        <v>0.2416207794067722</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -995,28 +995,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>80.79459133333332</v>
+        <v>80.79459133333334</v>
       </c>
       <c r="N9">
         <v>242.383774</v>
       </c>
       <c r="O9">
-        <v>0.7443502346040983</v>
+        <v>0.5968259846393842</v>
       </c>
       <c r="P9">
-        <v>0.7443502346040983</v>
+        <v>0.5968259846393843</v>
       </c>
       <c r="Q9">
-        <v>5767.20564536799</v>
+        <v>5767.205645367992</v>
       </c>
       <c r="R9">
-        <v>51904.85080831191</v>
+        <v>51904.85080831192</v>
       </c>
       <c r="S9">
-        <v>0.1886717875871978</v>
+        <v>0.1442055595787823</v>
       </c>
       <c r="T9">
-        <v>0.1886717875871978</v>
+        <v>0.1442055595787823</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1045,10 +1045,10 @@
         <v>214.143257</v>
       </c>
       <c r="I10">
-        <v>0.253471791659403</v>
+        <v>0.2416207794067722</v>
       </c>
       <c r="J10">
-        <v>0.2534717916594031</v>
+        <v>0.2416207794067722</v>
       </c>
       <c r="K10">
         <v>2</v>
@@ -1057,28 +1057,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M10">
-        <v>0.1439546666666667</v>
+        <v>0.05274599999999999</v>
       </c>
       <c r="N10">
-        <v>0.431864</v>
+        <v>0.158238</v>
       </c>
       <c r="O10">
-        <v>0.001326235929130571</v>
+        <v>0.0003896323115975859</v>
       </c>
       <c r="P10">
-        <v>0.001326235929130571</v>
+        <v>0.0003896323115975861</v>
       </c>
       <c r="Q10">
-        <v>10.27564039344978</v>
+        <v>3.765066744573999</v>
       </c>
       <c r="R10">
-        <v>92.48076354104801</v>
+        <v>33.885600701166</v>
       </c>
       <c r="S10">
-        <v>0.000336163397119799</v>
+        <v>9.414326281027105E-05</v>
       </c>
       <c r="T10">
-        <v>0.0003361633971197991</v>
+        <v>9.414326281027109E-05</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1107,10 +1107,10 @@
         <v>214.143257</v>
       </c>
       <c r="I11">
-        <v>0.253471791659403</v>
+        <v>0.2416207794067722</v>
       </c>
       <c r="J11">
-        <v>0.2534717916594031</v>
+        <v>0.2416207794067722</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1119,28 +1119,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>23.53999566666667</v>
+        <v>37.53882766666667</v>
       </c>
       <c r="N11">
-        <v>70.61998699999999</v>
+        <v>112.616483</v>
       </c>
       <c r="O11">
-        <v>0.2168709688099352</v>
+        <v>0.2772976187469524</v>
       </c>
       <c r="P11">
-        <v>0.2168709688099352</v>
+        <v>0.2772976187469524</v>
       </c>
       <c r="Q11">
-        <v>1680.310447275295</v>
+        <v>2679.56227350057</v>
       </c>
       <c r="R11">
-        <v>15122.79402547766</v>
+        <v>24116.06046150513</v>
       </c>
       <c r="S11">
-        <v>0.05497067302316479</v>
+        <v>0.06700086676928059</v>
       </c>
       <c r="T11">
-        <v>0.0549706730231648</v>
+        <v>0.06700086676928062</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1169,10 +1169,10 @@
         <v>214.143257</v>
       </c>
       <c r="I12">
-        <v>0.253471791659403</v>
+        <v>0.2416207794067722</v>
       </c>
       <c r="J12">
-        <v>0.2534717916594031</v>
+        <v>0.2416207794067722</v>
       </c>
       <c r="K12">
         <v>2</v>
@@ -1181,28 +1181,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M12">
-        <v>0.5362146666666666</v>
+        <v>0.5302206666666667</v>
       </c>
       <c r="N12">
-        <v>1.608644</v>
+        <v>1.590662</v>
       </c>
       <c r="O12">
-        <v>0.004940077130717815</v>
+        <v>0.003916716035531537</v>
       </c>
       <c r="P12">
-        <v>0.004940077130717815</v>
+        <v>0.003916716035531538</v>
       </c>
       <c r="Q12">
-        <v>38.27558505705644</v>
+        <v>37.84772682957044</v>
       </c>
       <c r="R12">
-        <v>344.480265513508</v>
+        <v>340.629541466134</v>
       </c>
       <c r="S12">
-        <v>0.001252170201258688</v>
+        <v>0.0009463599812201328</v>
       </c>
       <c r="T12">
-        <v>0.001252170201258688</v>
+        <v>0.0009463599812201332</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1231,40 +1231,40 @@
         <v>214.143257</v>
       </c>
       <c r="I13">
-        <v>0.253471791659403</v>
+        <v>0.2416207794067722</v>
       </c>
       <c r="J13">
-        <v>0.2534717916594031</v>
+        <v>0.2416207794067722</v>
       </c>
       <c r="K13">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L13">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M13">
-        <v>1.513283</v>
+        <v>0.08212733333333333</v>
       </c>
       <c r="N13">
-        <v>4.539849</v>
+        <v>0.246382</v>
       </c>
       <c r="O13">
-        <v>0.01394168269785742</v>
+        <v>0.0006066708893946866</v>
       </c>
       <c r="P13">
-        <v>0.01394168269785741</v>
+        <v>0.0006066708893946868</v>
       </c>
       <c r="Q13">
-        <v>108.0197834609103</v>
+        <v>5.862338216241555</v>
       </c>
       <c r="R13">
-        <v>972.178051148193</v>
+        <v>52.761043946174</v>
       </c>
       <c r="S13">
-        <v>0.00353382329217282</v>
+        <v>0.0001465842931389439</v>
       </c>
       <c r="T13">
-        <v>0.00353382329217282</v>
+        <v>0.000146584293138944</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1287,16 +1287,16 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>69.803866</v>
+        <v>66.06971</v>
       </c>
       <c r="H14">
-        <v>209.411598</v>
+        <v>198.20913</v>
       </c>
       <c r="I14">
-        <v>0.2478711386150191</v>
+        <v>0.2236420849624896</v>
       </c>
       <c r="J14">
-        <v>0.2478711386150191</v>
+        <v>0.2236420849624896</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1305,28 +1305,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>2.015745</v>
+        <v>16.37527</v>
       </c>
       <c r="N14">
-        <v>6.047235</v>
+        <v>49.12580999999999</v>
       </c>
       <c r="O14">
-        <v>0.01857080082826054</v>
+        <v>0.1209633773771395</v>
       </c>
       <c r="P14">
-        <v>0.01857080082826054</v>
+        <v>0.1209633773771395</v>
       </c>
       <c r="Q14">
-        <v>140.70679387017</v>
+        <v>1081.9093400717</v>
       </c>
       <c r="R14">
-        <v>1266.36114483153</v>
+        <v>9737.184060645299</v>
       </c>
       <c r="S14">
-        <v>0.004603165546293681</v>
+        <v>0.02705250192072792</v>
       </c>
       <c r="T14">
-        <v>0.00460316554629368</v>
+        <v>0.02705250192072793</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1349,16 +1349,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>69.803866</v>
+        <v>66.06971</v>
       </c>
       <c r="H15">
-        <v>209.411598</v>
+        <v>198.20913</v>
       </c>
       <c r="I15">
-        <v>0.2478711386150191</v>
+        <v>0.2236420849624896</v>
       </c>
       <c r="J15">
-        <v>0.2478711386150191</v>
+        <v>0.2236420849624896</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1367,28 +1367,28 @@
         <v>1</v>
       </c>
       <c r="M15">
-        <v>80.79459133333332</v>
+        <v>80.79459133333334</v>
       </c>
       <c r="N15">
         <v>242.383774</v>
       </c>
       <c r="O15">
-        <v>0.7443502346040983</v>
+        <v>0.5968259846393842</v>
       </c>
       <c r="P15">
-        <v>0.7443502346040983</v>
+        <v>0.5968259846393843</v>
       </c>
       <c r="Q15">
-        <v>5639.77482695676</v>
+        <v>5338.075218961847</v>
       </c>
       <c r="R15">
-        <v>50757.97344261084</v>
+        <v>48042.67697065663</v>
       </c>
       <c r="S15">
-        <v>0.1845029401796744</v>
+        <v>0.1334754075645427</v>
       </c>
       <c r="T15">
-        <v>0.1845029401796745</v>
+        <v>0.1334754075645427</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1411,16 +1411,16 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>69.803866</v>
+        <v>66.06971</v>
       </c>
       <c r="H16">
-        <v>209.411598</v>
+        <v>198.20913</v>
       </c>
       <c r="I16">
-        <v>0.2478711386150191</v>
+        <v>0.2236420849624896</v>
       </c>
       <c r="J16">
-        <v>0.2478711386150191</v>
+        <v>0.2236420849624896</v>
       </c>
       <c r="K16">
         <v>2</v>
@@ -1429,28 +1429,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M16">
-        <v>0.1439546666666667</v>
+        <v>0.05274599999999999</v>
       </c>
       <c r="N16">
-        <v>0.431864</v>
+        <v>0.158238</v>
       </c>
       <c r="O16">
-        <v>0.001326235929130571</v>
+        <v>0.0003896323115975859</v>
       </c>
       <c r="P16">
-        <v>0.001326235929130571</v>
+        <v>0.0003896323115975861</v>
       </c>
       <c r="Q16">
-        <v>10.04859226207467</v>
+        <v>3.48491292366</v>
       </c>
       <c r="R16">
-        <v>90.437330358672</v>
+        <v>31.36421631294</v>
       </c>
       <c r="S16">
-        <v>0.0003287356098257425</v>
+        <v>8.713818253443852E-05</v>
       </c>
       <c r="T16">
-        <v>0.0003287356098257426</v>
+        <v>8.713818253443856E-05</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1473,16 +1473,16 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>69.803866</v>
+        <v>66.06971</v>
       </c>
       <c r="H17">
-        <v>209.411598</v>
+        <v>198.20913</v>
       </c>
       <c r="I17">
-        <v>0.2478711386150191</v>
+        <v>0.2236420849624896</v>
       </c>
       <c r="J17">
-        <v>0.2478711386150191</v>
+        <v>0.2236420849624896</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1491,28 +1491,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>23.53999566666667</v>
+        <v>37.53882766666667</v>
       </c>
       <c r="N17">
-        <v>70.61998699999999</v>
+        <v>112.616483</v>
       </c>
       <c r="O17">
-        <v>0.2168709688099352</v>
+        <v>0.2772976187469524</v>
       </c>
       <c r="P17">
-        <v>0.2168709688099352</v>
+        <v>0.2772976187469524</v>
       </c>
       <c r="Q17">
-        <v>1643.182703156581</v>
+        <v>2480.179457676644</v>
       </c>
       <c r="R17">
-        <v>14788.64432840923</v>
+        <v>22321.61511908979</v>
       </c>
       <c r="S17">
-        <v>0.05375605397146094</v>
+        <v>0.06201541761170196</v>
       </c>
       <c r="T17">
-        <v>0.05375605397146094</v>
+        <v>0.06201541761170198</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1535,16 +1535,16 @@
         <v>1</v>
       </c>
       <c r="G18">
-        <v>69.803866</v>
+        <v>66.06971</v>
       </c>
       <c r="H18">
-        <v>209.411598</v>
+        <v>198.20913</v>
       </c>
       <c r="I18">
-        <v>0.2478711386150191</v>
+        <v>0.2236420849624896</v>
       </c>
       <c r="J18">
-        <v>0.2478711386150191</v>
+        <v>0.2236420849624896</v>
       </c>
       <c r="K18">
         <v>2</v>
@@ -1553,28 +1553,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M18">
-        <v>0.5362146666666666</v>
+        <v>0.5302206666666667</v>
       </c>
       <c r="N18">
-        <v>1.608644</v>
+        <v>1.590662</v>
       </c>
       <c r="O18">
-        <v>0.004940077130717815</v>
+        <v>0.003916716035531537</v>
       </c>
       <c r="P18">
-        <v>0.004940077130717815</v>
+        <v>0.003916716035531538</v>
       </c>
       <c r="Q18">
-        <v>37.42985673923467</v>
+        <v>35.03152568267333</v>
       </c>
       <c r="R18">
-        <v>336.868710653112</v>
+        <v>315.28373114406</v>
       </c>
       <c r="S18">
-        <v>0.001224502543237041</v>
+        <v>0.0008759425403922892</v>
       </c>
       <c r="T18">
-        <v>0.001224502543237042</v>
+        <v>0.0008759425403922896</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1597,46 +1597,46 @@
         <v>1</v>
       </c>
       <c r="G19">
-        <v>69.803866</v>
+        <v>66.06971</v>
       </c>
       <c r="H19">
-        <v>209.411598</v>
+        <v>198.20913</v>
       </c>
       <c r="I19">
-        <v>0.2478711386150191</v>
+        <v>0.2236420849624896</v>
       </c>
       <c r="J19">
-        <v>0.2478711386150191</v>
+        <v>0.2236420849624896</v>
       </c>
       <c r="K19">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L19">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M19">
-        <v>1.513283</v>
+        <v>0.08212733333333333</v>
       </c>
       <c r="N19">
-        <v>4.539849</v>
+        <v>0.246382</v>
       </c>
       <c r="O19">
-        <v>0.01394168269785742</v>
+        <v>0.0006066708893946866</v>
       </c>
       <c r="P19">
-        <v>0.01394168269785741</v>
+        <v>0.0006066708893946868</v>
       </c>
       <c r="Q19">
-        <v>105.633003752078</v>
+        <v>5.426129096406666</v>
       </c>
       <c r="R19">
-        <v>950.697033768702</v>
+        <v>48.83516186766001</v>
       </c>
       <c r="S19">
-        <v>0.00345574076452723</v>
+        <v>0.0001356771425902756</v>
       </c>
       <c r="T19">
-        <v>0.003455740764527229</v>
+        <v>0.0001356771425902757</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1659,16 +1659,16 @@
         <v>1</v>
       </c>
       <c r="G20">
-        <v>20.36135066666667</v>
+        <v>17.160835</v>
       </c>
       <c r="H20">
-        <v>61.084052</v>
+        <v>51.482505</v>
       </c>
       <c r="I20">
-        <v>0.07230245920027331</v>
+        <v>0.05808841781048025</v>
       </c>
       <c r="J20">
-        <v>0.07230245920027331</v>
+        <v>0.05808841781048025</v>
       </c>
       <c r="K20">
         <v>3</v>
@@ -1677,28 +1677,28 @@
         <v>1</v>
       </c>
       <c r="M20">
-        <v>2.015745</v>
+        <v>16.37527</v>
       </c>
       <c r="N20">
-        <v>6.047235</v>
+        <v>49.12580999999999</v>
       </c>
       <c r="O20">
-        <v>0.01857080082826054</v>
+        <v>0.1209633773771395</v>
       </c>
       <c r="P20">
-        <v>0.01857080082826054</v>
+        <v>0.1209633773771395</v>
       </c>
       <c r="Q20">
-        <v>41.04329079958</v>
+        <v>281.01330655045</v>
       </c>
       <c r="R20">
-        <v>369.38961719622</v>
+        <v>2529.11975895405</v>
       </c>
       <c r="S20">
-        <v>0.00134271456920171</v>
+        <v>0.007026571204850074</v>
       </c>
       <c r="T20">
-        <v>0.001342714569201709</v>
+        <v>0.007026571204850076</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1721,16 +1721,16 @@
         <v>1</v>
       </c>
       <c r="G21">
-        <v>20.36135066666667</v>
+        <v>17.160835</v>
       </c>
       <c r="H21">
-        <v>61.084052</v>
+        <v>51.482505</v>
       </c>
       <c r="I21">
-        <v>0.07230245920027331</v>
+        <v>0.05808841781048025</v>
       </c>
       <c r="J21">
-        <v>0.07230245920027331</v>
+        <v>0.05808841781048025</v>
       </c>
       <c r="K21">
         <v>3</v>
@@ -1739,28 +1739,28 @@
         <v>1</v>
       </c>
       <c r="M21">
-        <v>80.79459133333332</v>
+        <v>80.79459133333334</v>
       </c>
       <c r="N21">
         <v>242.383774</v>
       </c>
       <c r="O21">
-        <v>0.7443502346040983</v>
+        <v>0.5968259846393842</v>
       </c>
       <c r="P21">
-        <v>0.7443502346040983</v>
+        <v>0.5968259846393843</v>
       </c>
       <c r="Q21">
-        <v>1645.087006108027</v>
+        <v>1386.502650763764</v>
       </c>
       <c r="R21">
-        <v>14805.78305497225</v>
+        <v>12478.52385687387</v>
       </c>
       <c r="S21">
-        <v>0.05381835246817668</v>
+        <v>0.03466867715588381</v>
       </c>
       <c r="T21">
-        <v>0.05381835246817668</v>
+        <v>0.03466867715588382</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1783,16 +1783,16 @@
         <v>1</v>
       </c>
       <c r="G22">
-        <v>20.36135066666667</v>
+        <v>17.160835</v>
       </c>
       <c r="H22">
-        <v>61.084052</v>
+        <v>51.482505</v>
       </c>
       <c r="I22">
-        <v>0.07230245920027331</v>
+        <v>0.05808841781048025</v>
       </c>
       <c r="J22">
-        <v>0.07230245920027331</v>
+        <v>0.05808841781048025</v>
       </c>
       <c r="K22">
         <v>2</v>
@@ -1801,28 +1801,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M22">
-        <v>0.1439546666666667</v>
+        <v>0.05274599999999999</v>
       </c>
       <c r="N22">
-        <v>0.431864</v>
+        <v>0.158238</v>
       </c>
       <c r="O22">
-        <v>0.001326235929130571</v>
+        <v>0.0003896323115975859</v>
       </c>
       <c r="P22">
-        <v>0.001326235929130571</v>
+        <v>0.0003896323115975861</v>
       </c>
       <c r="Q22">
-        <v>2.931111448103111</v>
+        <v>0.90516540291</v>
       </c>
       <c r="R22">
-        <v>26.380003032928</v>
+        <v>8.146488626189999</v>
       </c>
       <c r="S22">
-        <v>9.58901191558997E-05</v>
+        <v>2.26331245085438E-05</v>
       </c>
       <c r="T22">
-        <v>9.58901191558997E-05</v>
+        <v>2.263312450854381E-05</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1845,16 +1845,16 @@
         <v>1</v>
       </c>
       <c r="G23">
-        <v>20.36135066666667</v>
+        <v>17.160835</v>
       </c>
       <c r="H23">
-        <v>61.084052</v>
+        <v>51.482505</v>
       </c>
       <c r="I23">
-        <v>0.07230245920027331</v>
+        <v>0.05808841781048025</v>
       </c>
       <c r="J23">
-        <v>0.07230245920027331</v>
+        <v>0.05808841781048025</v>
       </c>
       <c r="K23">
         <v>3</v>
@@ -1863,28 +1863,28 @@
         <v>1</v>
       </c>
       <c r="M23">
-        <v>23.53999566666667</v>
+        <v>37.53882766666667</v>
       </c>
       <c r="N23">
-        <v>70.61998699999999</v>
+        <v>112.616483</v>
       </c>
       <c r="O23">
-        <v>0.2168709688099352</v>
+        <v>0.2772976187469524</v>
       </c>
       <c r="P23">
-        <v>0.2168709688099352</v>
+        <v>0.2772976187469524</v>
       </c>
       <c r="Q23">
-        <v>479.3061064608137</v>
+        <v>644.1976276811018</v>
       </c>
       <c r="R23">
-        <v>4313.754958147324</v>
+        <v>5797.778649129916</v>
       </c>
       <c r="S23">
-        <v>0.01568030437410409</v>
+        <v>0.01610777993562423</v>
       </c>
       <c r="T23">
-        <v>0.01568030437410409</v>
+        <v>0.01610777993562423</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1907,16 +1907,16 @@
         <v>1</v>
       </c>
       <c r="G24">
-        <v>20.36135066666667</v>
+        <v>17.160835</v>
       </c>
       <c r="H24">
-        <v>61.084052</v>
+        <v>51.482505</v>
       </c>
       <c r="I24">
-        <v>0.07230245920027331</v>
+        <v>0.05808841781048025</v>
       </c>
       <c r="J24">
-        <v>0.07230245920027331</v>
+        <v>0.05808841781048025</v>
       </c>
       <c r="K24">
         <v>2</v>
@@ -1925,28 +1925,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M24">
-        <v>0.5362146666666666</v>
+        <v>0.5302206666666667</v>
       </c>
       <c r="N24">
-        <v>1.608644</v>
+        <v>1.590662</v>
       </c>
       <c r="O24">
-        <v>0.004940077130717815</v>
+        <v>0.003916716035531537</v>
       </c>
       <c r="P24">
-        <v>0.004940077130717815</v>
+        <v>0.003916716035531538</v>
       </c>
       <c r="Q24">
-        <v>10.91805486060978</v>
+        <v>9.099029374256668</v>
       </c>
       <c r="R24">
-        <v>98.262493745488</v>
+        <v>81.89126436831</v>
       </c>
       <c r="S24">
-        <v>0.0003571797251899281</v>
+        <v>0.0002275158375169637</v>
       </c>
       <c r="T24">
-        <v>0.0003571797251899281</v>
+        <v>0.0002275158375169638</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1969,46 +1969,46 @@
         <v>1</v>
       </c>
       <c r="G25">
-        <v>20.36135066666667</v>
+        <v>17.160835</v>
       </c>
       <c r="H25">
-        <v>61.084052</v>
+        <v>51.482505</v>
       </c>
       <c r="I25">
-        <v>0.07230245920027331</v>
+        <v>0.05808841781048025</v>
       </c>
       <c r="J25">
-        <v>0.07230245920027331</v>
+        <v>0.05808841781048025</v>
       </c>
       <c r="K25">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L25">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M25">
-        <v>1.513283</v>
+        <v>0.08212733333333333</v>
       </c>
       <c r="N25">
-        <v>4.539849</v>
+        <v>0.246382</v>
       </c>
       <c r="O25">
-        <v>0.01394168269785742</v>
+        <v>0.0006066708893946866</v>
       </c>
       <c r="P25">
-        <v>0.01394168269785741</v>
+        <v>0.0006066708893946868</v>
       </c>
       <c r="Q25">
-        <v>30.81248582090534</v>
+        <v>1.409373616323333</v>
       </c>
       <c r="R25">
-        <v>277.312372388148</v>
+        <v>12.68436254691</v>
       </c>
       <c r="S25">
-        <v>0.001008017944444992</v>
+        <v>3.524055209661421E-05</v>
       </c>
       <c r="T25">
-        <v>0.001008017944444992</v>
+        <v>3.524055209661422E-05</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2031,16 +2031,16 @@
         <v>1</v>
       </c>
       <c r="G26">
-        <v>30.30225433333333</v>
+        <v>33.06636366666667</v>
       </c>
       <c r="H26">
-        <v>90.906763</v>
+        <v>99.199091</v>
       </c>
       <c r="I26">
-        <v>0.1076022678200263</v>
+        <v>0.1119276974659227</v>
       </c>
       <c r="J26">
-        <v>0.1076022678200263</v>
+        <v>0.1119276974659227</v>
       </c>
       <c r="K26">
         <v>3</v>
@@ -2049,28 +2049,28 @@
         <v>1</v>
       </c>
       <c r="M26">
-        <v>2.015745</v>
+        <v>16.37527</v>
       </c>
       <c r="N26">
-        <v>6.047235</v>
+        <v>49.12580999999999</v>
       </c>
       <c r="O26">
-        <v>0.01857080082826054</v>
+        <v>0.1209633773771395</v>
       </c>
       <c r="P26">
-        <v>0.01857080082826054</v>
+        <v>0.1209633773771395</v>
       </c>
       <c r="Q26">
-        <v>61.081617661145</v>
+        <v>541.4706329598566</v>
       </c>
       <c r="R26">
-        <v>549.734558950305</v>
+        <v>4873.235696638709</v>
       </c>
       <c r="S26">
-        <v>0.001998260284354858</v>
+        <v>0.0135391523075247</v>
       </c>
       <c r="T26">
-        <v>0.001998260284354857</v>
+        <v>0.01353915230752471</v>
       </c>
     </row>
     <row r="27" spans="1:20">
@@ -2093,16 +2093,16 @@
         <v>1</v>
       </c>
       <c r="G27">
-        <v>30.30225433333333</v>
+        <v>33.06636366666667</v>
       </c>
       <c r="H27">
-        <v>90.906763</v>
+        <v>99.199091</v>
       </c>
       <c r="I27">
-        <v>0.1076022678200263</v>
+        <v>0.1119276974659227</v>
       </c>
       <c r="J27">
-        <v>0.1076022678200263</v>
+        <v>0.1119276974659227</v>
       </c>
       <c r="K27">
         <v>3</v>
@@ -2111,28 +2111,28 @@
         <v>1</v>
       </c>
       <c r="M27">
-        <v>80.79459133333332</v>
+        <v>80.79459133333334</v>
       </c>
       <c r="N27">
         <v>242.383774</v>
       </c>
       <c r="O27">
-        <v>0.7443502346040983</v>
+        <v>0.5968259846393842</v>
       </c>
       <c r="P27">
-        <v>0.7443502346040983</v>
+        <v>0.5968259846393843</v>
       </c>
       <c r="Q27">
-        <v>2448.258255340395</v>
+        <v>2671.583339327715</v>
       </c>
       <c r="R27">
-        <v>22034.32429806356</v>
+        <v>24044.25005394944</v>
       </c>
       <c r="S27">
-        <v>0.08009377329576962</v>
+        <v>0.06680135824851839</v>
       </c>
       <c r="T27">
-        <v>0.08009377329576962</v>
+        <v>0.06680135824851841</v>
       </c>
     </row>
     <row r="28" spans="1:20">
@@ -2155,16 +2155,16 @@
         <v>1</v>
       </c>
       <c r="G28">
-        <v>30.30225433333333</v>
+        <v>33.06636366666667</v>
       </c>
       <c r="H28">
-        <v>90.906763</v>
+        <v>99.199091</v>
       </c>
       <c r="I28">
-        <v>0.1076022678200263</v>
+        <v>0.1119276974659227</v>
       </c>
       <c r="J28">
-        <v>0.1076022678200263</v>
+        <v>0.1119276974659227</v>
       </c>
       <c r="K28">
         <v>2</v>
@@ -2173,28 +2173,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M28">
-        <v>0.1439546666666667</v>
+        <v>0.05274599999999999</v>
       </c>
       <c r="N28">
-        <v>0.431864</v>
+        <v>0.158238</v>
       </c>
       <c r="O28">
-        <v>0.001326235929130571</v>
+        <v>0.0003896323115975859</v>
       </c>
       <c r="P28">
-        <v>0.001326235929130571</v>
+        <v>0.0003896323115975861</v>
       </c>
       <c r="Q28">
-        <v>4.362150921803556</v>
+        <v>1.744118417962</v>
       </c>
       <c r="R28">
-        <v>39.259358296232</v>
+        <v>15.697065761658</v>
       </c>
       <c r="S28">
-        <v>0.0001427059936388492</v>
+        <v>4.36106474954427E-05</v>
       </c>
       <c r="T28">
-        <v>0.0001427059936388492</v>
+        <v>4.361064749544272E-05</v>
       </c>
     </row>
     <row r="29" spans="1:20">
@@ -2217,16 +2217,16 @@
         <v>1</v>
       </c>
       <c r="G29">
-        <v>30.30225433333333</v>
+        <v>33.06636366666667</v>
       </c>
       <c r="H29">
-        <v>90.906763</v>
+        <v>99.199091</v>
       </c>
       <c r="I29">
-        <v>0.1076022678200263</v>
+        <v>0.1119276974659227</v>
       </c>
       <c r="J29">
-        <v>0.1076022678200263</v>
+        <v>0.1119276974659227</v>
       </c>
       <c r="K29">
         <v>3</v>
@@ -2235,28 +2235,28 @@
         <v>1</v>
       </c>
       <c r="M29">
-        <v>23.53999566666667</v>
+        <v>37.53882766666667</v>
       </c>
       <c r="N29">
-        <v>70.61998699999999</v>
+        <v>112.616483</v>
       </c>
       <c r="O29">
-        <v>0.2168709688099352</v>
+        <v>0.2772976187469524</v>
       </c>
       <c r="P29">
-        <v>0.2168709688099352</v>
+        <v>0.2772976187469524</v>
       </c>
       <c r="Q29">
-        <v>713.3149356968979</v>
+        <v>1241.272527246328</v>
       </c>
       <c r="R29">
-        <v>6419.83442127208</v>
+        <v>11171.45274521695</v>
       </c>
       <c r="S29">
-        <v>0.02333580806827523</v>
+        <v>0.03103728397912964</v>
       </c>
       <c r="T29">
-        <v>0.02333580806827523</v>
+        <v>0.03103728397912965</v>
       </c>
     </row>
     <row r="30" spans="1:20">
@@ -2279,16 +2279,16 @@
         <v>1</v>
       </c>
       <c r="G30">
-        <v>30.30225433333333</v>
+        <v>33.06636366666667</v>
       </c>
       <c r="H30">
-        <v>90.906763</v>
+        <v>99.199091</v>
       </c>
       <c r="I30">
-        <v>0.1076022678200263</v>
+        <v>0.1119276974659227</v>
       </c>
       <c r="J30">
-        <v>0.1076022678200263</v>
+        <v>0.1119276974659227</v>
       </c>
       <c r="K30">
         <v>2</v>
@@ -2297,28 +2297,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M30">
-        <v>0.5362146666666666</v>
+        <v>0.5302206666666667</v>
       </c>
       <c r="N30">
-        <v>1.608644</v>
+        <v>1.590662</v>
       </c>
       <c r="O30">
-        <v>0.004940077130717815</v>
+        <v>0.003916716035531537</v>
       </c>
       <c r="P30">
-        <v>0.004940077130717815</v>
+        <v>0.003916716035531538</v>
       </c>
       <c r="Q30">
-        <v>16.24851320659689</v>
+        <v>17.53246938758245</v>
       </c>
       <c r="R30">
-        <v>146.236618859372</v>
+        <v>157.792224488242</v>
       </c>
       <c r="S30">
-        <v>0.0005315635024710857</v>
+        <v>0.0004383890074849018</v>
       </c>
       <c r="T30">
-        <v>0.0005315635024710857</v>
+        <v>0.0004383890074849019</v>
       </c>
     </row>
     <row r="31" spans="1:20">
@@ -2341,46 +2341,46 @@
         <v>1</v>
       </c>
       <c r="G31">
-        <v>30.30225433333333</v>
+        <v>33.06636366666667</v>
       </c>
       <c r="H31">
-        <v>90.906763</v>
+        <v>99.199091</v>
       </c>
       <c r="I31">
-        <v>0.1076022678200263</v>
+        <v>0.1119276974659227</v>
       </c>
       <c r="J31">
-        <v>0.1076022678200263</v>
+        <v>0.1119276974659227</v>
       </c>
       <c r="K31">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L31">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M31">
-        <v>1.513283</v>
+        <v>0.08212733333333333</v>
       </c>
       <c r="N31">
-        <v>4.539849</v>
+        <v>0.246382</v>
       </c>
       <c r="O31">
-        <v>0.01394168269785742</v>
+        <v>0.0006066708893946866</v>
       </c>
       <c r="P31">
-        <v>0.01394168269785741</v>
+        <v>0.0006066708893946868</v>
       </c>
       <c r="Q31">
-        <v>45.85588634430967</v>
+        <v>2.715652270973556</v>
       </c>
       <c r="R31">
-        <v>412.702977098787</v>
+        <v>24.440870438762</v>
       </c>
       <c r="S31">
-        <v>0.001500156675516681</v>
+        <v>6.790327576955071E-05</v>
       </c>
       <c r="T31">
-        <v>0.001500156675516681</v>
+        <v>6.790327576955073E-05</v>
       </c>
     </row>
     <row r="32" spans="1:20">
@@ -2403,16 +2403,16 @@
         <v>1</v>
       </c>
       <c r="G32">
-        <v>79.76382166666667</v>
+        <v>89.59507733333334</v>
       </c>
       <c r="H32">
-        <v>239.291465</v>
+        <v>268.785232</v>
       </c>
       <c r="I32">
-        <v>0.2832386002345773</v>
+        <v>0.3032740706323996</v>
       </c>
       <c r="J32">
-        <v>0.2832386002345773</v>
+        <v>0.3032740706323996</v>
       </c>
       <c r="K32">
         <v>3</v>
@@ -2421,28 +2421,28 @@
         <v>1</v>
       </c>
       <c r="M32">
-        <v>2.015745</v>
+        <v>16.37527</v>
       </c>
       <c r="N32">
-        <v>6.047235</v>
+        <v>49.12580999999999</v>
       </c>
       <c r="O32">
-        <v>0.01857080082826054</v>
+        <v>0.1209633773771395</v>
       </c>
       <c r="P32">
-        <v>0.01857080082826054</v>
+        <v>0.1209633773771395</v>
       </c>
       <c r="Q32">
-        <v>160.783524705475</v>
+        <v>1467.143582004213</v>
       </c>
       <c r="R32">
-        <v>1447.051722349275</v>
+        <v>13204.29223803792</v>
       </c>
       <c r="S32">
-        <v>0.005259967631831643</v>
+        <v>0.03668505585460821</v>
       </c>
       <c r="T32">
-        <v>0.005259967631831644</v>
+        <v>0.03668505585460823</v>
       </c>
     </row>
     <row r="33" spans="1:20">
@@ -2465,16 +2465,16 @@
         <v>1</v>
       </c>
       <c r="G33">
-        <v>79.76382166666667</v>
+        <v>89.59507733333334</v>
       </c>
       <c r="H33">
-        <v>239.291465</v>
+        <v>268.785232</v>
       </c>
       <c r="I33">
-        <v>0.2832386002345773</v>
+        <v>0.3032740706323996</v>
       </c>
       <c r="J33">
-        <v>0.2832386002345773</v>
+        <v>0.3032740706323996</v>
       </c>
       <c r="K33">
         <v>3</v>
@@ -2483,28 +2483,28 @@
         <v>1</v>
       </c>
       <c r="M33">
-        <v>80.79459133333332</v>
+        <v>80.79459133333334</v>
       </c>
       <c r="N33">
         <v>242.383774</v>
       </c>
       <c r="O33">
-        <v>0.7443502346040983</v>
+        <v>0.5968259846393842</v>
       </c>
       <c r="P33">
-        <v>0.7443502346040983</v>
+        <v>0.5968259846393843</v>
       </c>
       <c r="Q33">
-        <v>6444.485374743212</v>
+        <v>7238.797658625064</v>
       </c>
       <c r="R33">
-        <v>58000.36837268891</v>
+        <v>65149.17892762557</v>
       </c>
       <c r="S33">
-        <v>0.210828718533544</v>
+        <v>0.181001845820776</v>
       </c>
       <c r="T33">
-        <v>0.210828718533544</v>
+        <v>0.1810018458207761</v>
       </c>
     </row>
     <row r="34" spans="1:20">
@@ -2527,16 +2527,16 @@
         <v>1</v>
       </c>
       <c r="G34">
-        <v>79.76382166666667</v>
+        <v>89.59507733333334</v>
       </c>
       <c r="H34">
-        <v>239.291465</v>
+        <v>268.785232</v>
       </c>
       <c r="I34">
-        <v>0.2832386002345773</v>
+        <v>0.3032740706323996</v>
       </c>
       <c r="J34">
-        <v>0.2832386002345773</v>
+        <v>0.3032740706323996</v>
       </c>
       <c r="K34">
         <v>2</v>
@@ -2545,28 +2545,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M34">
-        <v>0.1439546666666667</v>
+        <v>0.05274599999999999</v>
       </c>
       <c r="N34">
-        <v>0.431864</v>
+        <v>0.158238</v>
       </c>
       <c r="O34">
-        <v>0.001326235929130571</v>
+        <v>0.0003896323115975859</v>
       </c>
       <c r="P34">
-        <v>0.001326235929130571</v>
+        <v>0.0003896323115975861</v>
       </c>
       <c r="Q34">
-        <v>11.48237436008445</v>
+        <v>4.725781949023999</v>
       </c>
       <c r="R34">
-        <v>103.34136924076</v>
+        <v>42.532037541216</v>
       </c>
       <c r="S34">
-        <v>0.000375641208147747</v>
+        <v>0.0001181653771881114</v>
       </c>
       <c r="T34">
-        <v>0.0003756412081477471</v>
+        <v>0.0001181653771881114</v>
       </c>
     </row>
     <row r="35" spans="1:20">
@@ -2589,16 +2589,16 @@
         <v>1</v>
       </c>
       <c r="G35">
-        <v>79.76382166666667</v>
+        <v>89.59507733333334</v>
       </c>
       <c r="H35">
-        <v>239.291465</v>
+        <v>268.785232</v>
       </c>
       <c r="I35">
-        <v>0.2832386002345773</v>
+        <v>0.3032740706323996</v>
       </c>
       <c r="J35">
-        <v>0.2832386002345773</v>
+        <v>0.3032740706323996</v>
       </c>
       <c r="K35">
         <v>3</v>
@@ -2607,28 +2607,28 @@
         <v>1</v>
       </c>
       <c r="M35">
-        <v>23.53999566666667</v>
+        <v>37.53882766666667</v>
       </c>
       <c r="N35">
-        <v>70.61998699999999</v>
+        <v>112.616483</v>
       </c>
       <c r="O35">
-        <v>0.2168709688099352</v>
+        <v>0.2772976187469524</v>
       </c>
       <c r="P35">
-        <v>0.2168709688099352</v>
+        <v>0.2772976187469524</v>
       </c>
       <c r="Q35">
-        <v>1877.640016390106</v>
+        <v>3363.294167797673</v>
       </c>
       <c r="R35">
-        <v>16898.76014751095</v>
+        <v>30269.64751017906</v>
       </c>
       <c r="S35">
-        <v>0.06142622963724272</v>
+        <v>0.08409717761405944</v>
       </c>
       <c r="T35">
-        <v>0.06142622963724272</v>
+        <v>0.08409717761405945</v>
       </c>
     </row>
     <row r="36" spans="1:20">
@@ -2651,16 +2651,16 @@
         <v>1</v>
       </c>
       <c r="G36">
-        <v>79.76382166666667</v>
+        <v>89.59507733333334</v>
       </c>
       <c r="H36">
-        <v>239.291465</v>
+        <v>268.785232</v>
       </c>
       <c r="I36">
-        <v>0.2832386002345773</v>
+        <v>0.3032740706323996</v>
       </c>
       <c r="J36">
-        <v>0.2832386002345773</v>
+        <v>0.3032740706323996</v>
       </c>
       <c r="K36">
         <v>2</v>
@@ -2669,28 +2669,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M36">
-        <v>0.5362146666666666</v>
+        <v>0.5302206666666667</v>
       </c>
       <c r="N36">
-        <v>1.608644</v>
+        <v>1.590662</v>
       </c>
       <c r="O36">
-        <v>0.004940077130717815</v>
+        <v>0.003916716035531537</v>
       </c>
       <c r="P36">
-        <v>0.004940077130717815</v>
+        <v>0.003916716035531538</v>
       </c>
       <c r="Q36">
-        <v>42.77053104705111</v>
+        <v>47.50516163373156</v>
       </c>
       <c r="R36">
-        <v>384.93477942346</v>
+        <v>427.546454703584</v>
       </c>
       <c r="S36">
-        <v>0.001399220531555361</v>
+        <v>0.001187838415606843</v>
       </c>
       <c r="T36">
-        <v>0.001399220531555361</v>
+        <v>0.001187838415606844</v>
       </c>
     </row>
     <row r="37" spans="1:20">
@@ -2713,46 +2713,46 @@
         <v>1</v>
       </c>
       <c r="G37">
-        <v>79.76382166666667</v>
+        <v>89.59507733333334</v>
       </c>
       <c r="H37">
-        <v>239.291465</v>
+        <v>268.785232</v>
       </c>
       <c r="I37">
-        <v>0.2832386002345773</v>
+        <v>0.3032740706323996</v>
       </c>
       <c r="J37">
-        <v>0.2832386002345773</v>
+        <v>0.3032740706323996</v>
       </c>
       <c r="K37">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L37">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M37">
-        <v>1.513283</v>
+        <v>0.08212733333333333</v>
       </c>
       <c r="N37">
-        <v>4.539849</v>
+        <v>0.246382</v>
       </c>
       <c r="O37">
-        <v>0.01394168269785742</v>
+        <v>0.0006066708893946866</v>
       </c>
       <c r="P37">
-        <v>0.01394168269785741</v>
+        <v>0.0006066708893946868</v>
       </c>
       <c r="Q37">
-        <v>120.7052353431984</v>
+        <v>7.358204781180445</v>
       </c>
       <c r="R37">
-        <v>1086.347118088785</v>
+        <v>66.223843030624</v>
       </c>
       <c r="S37">
-        <v>0.00394882269225576</v>
+        <v>0.0001839875501609049</v>
       </c>
       <c r="T37">
-        <v>0.00394882269225576</v>
+        <v>0.0001839875501609049</v>
       </c>
     </row>
   </sheetData>
